--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,18 +434,125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>X_n</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[8.24175e+05 6.19500e+04 7.59500e+04 3.73700e+04 8.16000e+03 5.80200e+03
+ 1.53250e+03 2.10000e+02]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[4.8000710e+05 4.8626325e+05 3.0355500e+04 2.8101500e+04 8.9688000e+03
+ 9.7920000e+02 2.9010000e+02 1.5325000e+01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[1.32238951e+06 2.83204189e+05 2.38268992e+05 1.12315350e+04
+ 6.74436000e+03 1.07625600e+03 4.89600000e+01 2.90100000e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[1.45555525e+06 7.80209812e+05 1.38770053e+05 8.81595272e+04
+ 2.69556840e+03 8.09323200e+02 5.38128000e+01 4.89600000e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2.48632291e+06 8.58777595e+05 3.82302808e+05 5.13449195e+04
+ 2.11582865e+04 3.23468208e+02 4.04661600e+01 5.38128000e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[3.38156169e+06 1.46693051e+06 4.20801021e+05 1.41452039e+05
+ 1.23227807e+04 2.53899438e+03 1.61734104e+01 4.04661600e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[5.13360620e+06 1.99512140e+06 7.18795952e+05 1.55696378e+05
+ 3.39484894e+04 1.47873368e+03 1.26949719e+02 1.61734104e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[7.38398092e+06 3.02882766e+06 9.77609484e+05 2.65954502e+05
+ 3.73671307e+04 4.07381872e+03 7.39366840e+01 1.26949719e+00]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[1.08994472e+07 4.35654874e+06 1.48412555e+06 3.61715509e+05
+ 6.38290805e+04 4.48405568e+03 2.03690936e+02 7.39366840e-01]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1.58896194e+07 6.43067387e+06 2.13470888e+06 5.49126454e+05
+ 8.68117222e+04 7.65948966e+03 2.24202784e+02 2.03690936e+00]</t>
+        </is>
       </c>
     </row>
   </sheetData>
